--- a/input/interview_appointments(AutoRecovered).xlsx
+++ b/input/interview_appointments(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/MatchingEngine/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B5E9589-7AC2-0248-A24B-02DC2E51517A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2D3EA1-5C8A-9047-9E28-944C6C987C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16060" yWindow="5760" windowWidth="19200" windowHeight="15540" xr2:uid="{009336B1-CFEB-F047-99C3-EF9360A9352C}"/>
+    <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{009336B1-CFEB-F047-99C3-EF9360A9352C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DTG</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Walter Brewer</t>
   </si>
   <si>
-    <t>MoneyLion</t>
-  </si>
-  <si>
     <t>Gemini</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>BNY Mellon</t>
   </si>
   <si>
-    <t>Daniel Arango</t>
-  </si>
-  <si>
     <t>Mon 1/04</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Chainalysis</t>
   </si>
   <si>
-    <t>3:30pm –4:00pm EST</t>
-  </si>
-  <si>
     <t>Raghav Arora</t>
   </si>
   <si>
@@ -97,12 +88,6 @@
     <t>Thurs 1/7</t>
   </si>
   <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>Metric Stream</t>
-  </si>
-  <si>
     <t>Market Axxess</t>
   </si>
   <si>
@@ -122,13 +107,34 @@
   </si>
   <si>
     <t>BitGo</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>4pm est</t>
+  </si>
+  <si>
+    <t>Fri 1/12</t>
+  </si>
+  <si>
+    <t>Noah Cornwell</t>
+  </si>
+  <si>
+    <t>Wed 1/13</t>
+  </si>
+  <si>
+    <t>2-5 pm EST</t>
+  </si>
+  <si>
+    <t>https://git-rba.hackerrank.com/git/dc54fa26-d225-47e9-86f2-8120299d029b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,13 +168,31 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF39424E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -192,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +227,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,162 +552,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748D28B5-6F3C-7540-A6F5-27F77B802050}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C7" s="15">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C15" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
